--- a/Federated Electric Market/result_excel/train_loss/frac/frac=0.05.xlsx
+++ b/Federated Electric Market/result_excel/train_loss/frac/frac=0.05.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00627074227507345</v>
+        <v>0.009865446903377813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05163643638504313</v>
+        <v>0.06609513924846175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0666136776245935</v>
+        <v>0.08525283948227234</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004778967450305998</v>
+        <v>0.009592331198081998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04766464070991633</v>
+        <v>0.06953356295685673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06384806438984142</v>
+        <v>0.0901272325630056</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006348061607847436</v>
+        <v>0.007208062716721452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05083381642199432</v>
+        <v>0.05778941688982518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07089417282908492</v>
+        <v>0.07827315970753544</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01019154110356195</v>
+        <v>0.005874471155405812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06570920953249679</v>
+        <v>0.05260896729491486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09316260446250073</v>
+        <v>0.06782333560815657</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.009525912321677947</v>
+        <v>0.005496083704854005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07145350162019119</v>
+        <v>0.05129881597215995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09279217612189469</v>
+        <v>0.06784250911634288</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003647784966148159</v>
+        <v>0.005702136087812053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0439104925036589</v>
+        <v>0.05358848242116886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05767816294172799</v>
+        <v>0.07082773798145595</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002585208667052087</v>
+        <v>0.006753784264776977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0361024972740957</v>
+        <v>0.05541806998134378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.047886647544344</v>
+        <v>0.07429301869118028</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002796588159269068</v>
+        <v>0.006414009441495014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03694234455856395</v>
+        <v>0.05725922765870618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04922427548720408</v>
+        <v>0.07446057736410441</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004226195436469583</v>
+        <v>0.005017018391239269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04591477437147304</v>
+        <v>0.04957862533175168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06029837386658789</v>
+        <v>0.06495172387245685</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.004034855453210184</v>
+        <v>0.007005192394733852</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04412765829877267</v>
+        <v>0.05829286157988435</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0582423168554647</v>
+        <v>0.07689498875838149</v>
       </c>
     </row>
   </sheetData>
